--- a/meta/12-8-1.xlsx
+++ b/meta/12-8-1.xlsx
@@ -136,23 +136,32 @@
     <t>Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами</t>
   </si>
   <si>
-    <t>На сайте МОН КР в разделе "Базисный учебный план. Предметные стандарты"</t>
-  </si>
-  <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 Государственный образовательный стандарт общего школьного образования (21 июля 2014 г. № 403), предметные стандарты. Постановление Правительства КР "Об утверждении актов общественного здравоохранения от 11 апреля 2016 года № 201. постановление Правительства КР "О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной среды" от 17 июня 2019 года № 295.</t>
+  </si>
+  <si>
+    <t>ГОС ШОО, ГОС СПО, ГОС ВПО – www.toktom.kg, 
+Сайт Кыргызской Академии образования (предметные стандарты, программы и УМК) - kao.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,25 +228,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -549,7 +562,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,8 +732,8 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/meta/12-8-1.xlsx
+++ b/meta/12-8-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,48 +100,45 @@
     <t xml:space="preserve">12.8. К 2030 году обеспечить, чтобы люди располагали соответствующей информацией и сведениями об устойчивом развитии и образе жизни в гармонии с природой </t>
   </si>
   <si>
-    <t>12.8.1 Статус 
-i) воспитания в духе всемирной гражданственности и 
-ii) пропаганды устойчивого развития (включая просвещение по проблеме изменения климата) в 
-a) в национальной политике в сфере образования; 
+    <t>Министерство образования и науки Кыргызской Республики</t>
+  </si>
+  <si>
+    <t>Пак Зоя Алексеевна</t>
+  </si>
+  <si>
+    <t>zoya.pak.54@mail.ru</t>
+  </si>
+  <si>
+    <t>0550513385, 0312663036</t>
+  </si>
+  <si>
+    <t>edu.gov.kg</t>
+  </si>
+  <si>
+    <t>В государственный образовательный стандарт общего школьного образования включены понятия: формирование ключевых и предметных компетентностей учащихся. Воспитание активной гражданской позиции - это воспитание любви к Родине, духовны ценностям, уважение к культурам других народов.  Организация безопасной образовательной среды - это инфраструктура школы, экологическое образование и воспитание, толерантная среда обучения: обеспечение в школе информационной безопасности, психологической безопасности на уроках и во внеурочное время.</t>
+  </si>
+  <si>
+    <t>Государственный образовательный стандарт, предметные стандарты, общеобразовательные программы, содержание учебно-методических комплексов направлены на умение учащихся применять полученные знания   в реальной жизни.  Сохранение здоровья детей, здоровый образ жизни детей для улучшения условий жизни для устойчивого развития.  содержание учебно-методических материалов направлено на овладение учащимися ключевых и предметных компетентностей.</t>
+  </si>
+  <si>
+    <t>Разработка Государственного образовательного стандарта, предметных стандартов, которые формируют ключевые и предметные компетентности. Общеобразовательные программы, учебно-методические комплексы, выполнение НПА в области образования направлены на реализацию ЦУР для улучшения условий жизни детей</t>
+  </si>
+  <si>
+    <t>Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами</t>
+  </si>
+  <si>
+    <t>На сайте МОН КР в разделе "Базисный учебный план. Предметные стандарты"</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
+Государственный образовательный стандарт общего школьного образования (21 июля 2014 г. № 403), предметные стандарты. Постановление Правительства КР "Об утверждении актов общественного здравоохранения от 11 апреля 2016 года № 201. постановление Правительства КР "О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной среды" от 17 июня 2019 года № 295.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8.1 Статус i) воспитания в духе всемирной гражданственности и ii) пропаганды устойчивого развития (включая просвещение по проблеме изменения климата) в: a) в национальной политике в сфере образования; 
 b) в учебных программах; 
 c) в программах подготовки учителей и 
-d) в системе аттестации учащихся</t>
-  </si>
-  <si>
-    <t>Министерство образования и науки Кыргызской Республики</t>
-  </si>
-  <si>
-    <t>Пак Зоя Алексеевна</t>
-  </si>
-  <si>
-    <t>zoya.pak.54@mail.ru</t>
-  </si>
-  <si>
-    <t>0550513385, 0312663036</t>
-  </si>
-  <si>
-    <t>edu.gov.kg</t>
-  </si>
-  <si>
-    <t>В государственный образовательный стандарт общего школьного образования включены понятия: формирование ключевых и предметных компетентностей учащихся. Воспитание активной гражданской позиции - это воспитание любви к Родине, духовны ценностям, уважение к культурам других народов.  Организация безопасной образовательной среды - это инфраструктура школы, экологическое образование и воспитание, толерантная среда обучения: обеспечение в школе информационной безопасности, психологической безопасности на уроках и во внеурочное время.</t>
-  </si>
-  <si>
-    <t>Государственный образовательный стандарт, предметные стандарты, общеобразовательные программы, содержание учебно-методических комплексов направлены на умение учащихся применять полученные знания   в реальной жизни.  Сохранение здоровья детей, здоровый образ жизни детей для улучшения условий жизни для устойчивого развития.  содержание учебно-методических материалов направлено на овладение учащимися ключевых и предметных компетентностей.</t>
-  </si>
-  <si>
-    <t>Разработка Государственного образовательного стандарта, предметных стандартов, которые формируют ключевые и предметные компетентности. Общеобразовательные программы, учебно-методические комплексы, выполнение НПА в области образования направлены на реализацию ЦУР для улучшения условий жизни детей</t>
-  </si>
-  <si>
-    <t>Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
-Государственный образовательный стандарт общего школьного образования (21 июля 2014 г. № 403), предметные стандарты. Постановление Правительства КР "Об утверждении актов общественного здравоохранения от 11 апреля 2016 года № 201. постановление Правительства КР "О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной среды" от 17 июня 2019 года № 295.</t>
-  </si>
-  <si>
-    <t>ГОС ШОО, ГОС СПО, ГОС ВПО – www.toktom.kg, 
-Сайт Кыргызской Академии образования (предметные стандарты, программы и УМК) - kao.kg</t>
+d) в системе аттестации учащихся
+</t>
   </si>
 </sst>
 </file>
@@ -562,7 +559,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,8 +595,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,8 +729,8 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>39</v>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +754,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
